--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N2">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O2">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P2">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q2">
-        <v>1.53792392374666</v>
+        <v>1.824516264887666</v>
       </c>
       <c r="R2">
-        <v>1.53792392374666</v>
+        <v>16.420646383989</v>
       </c>
       <c r="S2">
-        <v>9.900739303710279E-06</v>
+        <v>7.204847855716797E-06</v>
       </c>
       <c r="T2">
-        <v>9.900739303710279E-06</v>
+        <v>7.320711778280499E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N3">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O3">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P3">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q3">
-        <v>4.4378791663681</v>
+        <v>6.277328598421554</v>
       </c>
       <c r="R3">
-        <v>4.4378791663681</v>
+        <v>56.49595738579399</v>
       </c>
       <c r="S3">
-        <v>2.856986877513165E-05</v>
+        <v>2.478859649670038E-05</v>
       </c>
       <c r="T3">
-        <v>2.856986877513165E-05</v>
+        <v>2.518723142730167E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N4">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O4">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P4">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q4">
-        <v>388.7241075364994</v>
+        <v>581.2828509447302</v>
       </c>
       <c r="R4">
-        <v>388.7241075364994</v>
+        <v>5231.545658502572</v>
       </c>
       <c r="S4">
-        <v>0.002502500930221763</v>
+        <v>0.00229543281295546</v>
       </c>
       <c r="T4">
-        <v>0.002502500930221763</v>
+        <v>0.002332346548681251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N5">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O5">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P5">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q5">
-        <v>676.559854847961</v>
+        <v>733.7326031852368</v>
       </c>
       <c r="R5">
-        <v>676.559854847961</v>
+        <v>6603.593428667132</v>
       </c>
       <c r="S5">
-        <v>0.00435550981604286</v>
+        <v>0.002897442941159057</v>
       </c>
       <c r="T5">
-        <v>0.00435550981604286</v>
+        <v>0.002944037832722357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N6">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O6">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P6">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q6">
-        <v>39.6379987194298</v>
+        <v>55.10481816945833</v>
       </c>
       <c r="R6">
-        <v>39.6379987194298</v>
+        <v>330.62890901675</v>
       </c>
       <c r="S6">
-        <v>0.000255178741797454</v>
+        <v>0.0002176038869416875</v>
       </c>
       <c r="T6">
-        <v>0.000255178741797454</v>
+        <v>0.0001474021723553471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N7">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O7">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P7">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q7">
-        <v>2.332965762692903</v>
+        <v>2.970418302765666</v>
       </c>
       <c r="R7">
-        <v>2.332965762692903</v>
+        <v>26.733764724891</v>
       </c>
       <c r="S7">
-        <v>1.501900416805596E-05</v>
+        <v>1.172991019654232E-05</v>
       </c>
       <c r="T7">
-        <v>1.501900416805596E-05</v>
+        <v>1.19185433826842E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N8">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O8">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P8">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q8">
-        <v>6.732075621063298</v>
+        <v>10.21985504874289</v>
       </c>
       <c r="R8">
-        <v>6.732075621063298</v>
+        <v>91.97869543868599</v>
       </c>
       <c r="S8">
-        <v>4.333928659789206E-05</v>
+        <v>4.035727285676193E-05</v>
       </c>
       <c r="T8">
-        <v>4.333928659789206E-05</v>
+        <v>4.100627364495316E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N9">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O9">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P9">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q9">
-        <v>589.6780848604553</v>
+        <v>946.3621962484076</v>
       </c>
       <c r="R9">
-        <v>589.6780848604553</v>
+        <v>8517.259766235669</v>
       </c>
       <c r="S9">
-        <v>0.003796188420745474</v>
+        <v>0.003737097756588967</v>
       </c>
       <c r="T9">
-        <v>0.003796188420745474</v>
+        <v>0.003797195459379296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N10">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O10">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P10">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q10">
-        <v>1026.312780106527</v>
+        <v>1194.559235114034</v>
       </c>
       <c r="R10">
-        <v>1026.312780106527</v>
+        <v>10751.03311602631</v>
       </c>
       <c r="S10">
-        <v>0.006607124788816736</v>
+        <v>0.004717205162414898</v>
       </c>
       <c r="T10">
-        <v>0.006607124788816736</v>
+        <v>0.004793064348424143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N11">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O11">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P11">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q11">
-        <v>60.12917315754559</v>
+        <v>89.71384010720833</v>
       </c>
       <c r="R11">
-        <v>60.12917315754559</v>
+        <v>538.28304064325</v>
       </c>
       <c r="S11">
-        <v>0.000387095394504429</v>
+        <v>0.0003542717491555693</v>
       </c>
       <c r="T11">
-        <v>0.000387095394504429</v>
+        <v>0.0002399792860485681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N12">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O12">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P12">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q12">
-        <v>122.423583894021</v>
+        <v>171.8534904211576</v>
       </c>
       <c r="R12">
-        <v>122.423583894021</v>
+        <v>1546.681413790419</v>
       </c>
       <c r="S12">
-        <v>0.0007881300043813293</v>
+        <v>0.0006786337155698408</v>
       </c>
       <c r="T12">
-        <v>0.0007881300043813293</v>
+        <v>0.0006895470847130229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N13">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O13">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P13">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q13">
-        <v>353.2691468325779</v>
+        <v>591.2695057425082</v>
       </c>
       <c r="R13">
-        <v>353.2691468325779</v>
+        <v>5321.425551682573</v>
       </c>
       <c r="S13">
-        <v>0.002274251458623945</v>
+        <v>0.002334869199350176</v>
       </c>
       <c r="T13">
-        <v>0.002274251458623945</v>
+        <v>0.002372417126735656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N14">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O14">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P14">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q14">
-        <v>30943.66220319123</v>
+        <v>54751.76559358536</v>
       </c>
       <c r="R14">
-        <v>30943.66220319123</v>
+        <v>492765.8903422682</v>
       </c>
       <c r="S14">
-        <v>0.1992069489559073</v>
+        <v>0.2162097146105408</v>
       </c>
       <c r="T14">
-        <v>0.1992069489559073</v>
+        <v>0.2196866659817316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N15">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O15">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P15">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q15">
-        <v>53856.29345535168</v>
+        <v>69111.20022322667</v>
       </c>
       <c r="R15">
-        <v>53856.29345535168</v>
+        <v>622000.8020090399</v>
       </c>
       <c r="S15">
-        <v>0.3467122873454897</v>
+        <v>0.2729138086170946</v>
       </c>
       <c r="T15">
-        <v>0.3467122873454897</v>
+        <v>0.2773026402789716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N16">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O16">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P16">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q16">
-        <v>3155.309431559748</v>
+        <v>5190.392392598208</v>
       </c>
       <c r="R16">
-        <v>3155.309431559748</v>
+        <v>31142.35435558925</v>
       </c>
       <c r="S16">
-        <v>0.02031303084765422</v>
+        <v>0.02049638483351224</v>
       </c>
       <c r="T16">
-        <v>0.02031303084765422</v>
+        <v>0.01388399670774495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H17">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I17">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J17">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N17">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O17">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P17">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q17">
-        <v>86.6595094769021</v>
+        <v>156.0406150538613</v>
       </c>
       <c r="R17">
-        <v>86.6595094769021</v>
+        <v>1404.365535484752</v>
       </c>
       <c r="S17">
-        <v>0.0005578905420939105</v>
+        <v>0.000616190117025217</v>
       </c>
       <c r="T17">
-        <v>0.0005578905420939105</v>
+        <v>0.0006260993067032307</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H18">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I18">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J18">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N18">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O18">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P18">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q18">
-        <v>250.0672664863069</v>
+        <v>536.8646113183323</v>
       </c>
       <c r="R18">
-        <v>250.0672664863069</v>
+        <v>4831.781501864992</v>
       </c>
       <c r="S18">
-        <v>0.001609865595848689</v>
+        <v>0.002120029247262024</v>
       </c>
       <c r="T18">
-        <v>0.001609865595848689</v>
+        <v>0.002154122250952956</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H19">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I19">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J19">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N19">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O19">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P19">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q19">
-        <v>21903.97064563041</v>
+        <v>49713.85310575032</v>
       </c>
       <c r="R19">
-        <v>21903.97064563041</v>
+        <v>447424.6779517529</v>
       </c>
       <c r="S19">
-        <v>0.1410118535318611</v>
+        <v>0.1963154589747863</v>
       </c>
       <c r="T19">
-        <v>0.1410118535318611</v>
+        <v>0.1994724831885127</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H20">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I20">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J20">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N20">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O20">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P20">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q20">
-        <v>38123.04643135682</v>
+        <v>62752.02303726477</v>
       </c>
       <c r="R20">
-        <v>38123.04643135682</v>
+        <v>564768.207335383</v>
       </c>
       <c r="S20">
-        <v>0.2454258876866802</v>
+        <v>0.2478019995342517</v>
       </c>
       <c r="T20">
-        <v>0.2454258876866802</v>
+        <v>0.2517869985599266</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H21">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I21">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J21">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N21">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O21">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P21">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q21">
-        <v>2233.53670011424</v>
+        <v>4712.805188460667</v>
       </c>
       <c r="R21">
-        <v>2233.53670011424</v>
+        <v>28276.831130764</v>
       </c>
       <c r="S21">
-        <v>0.01437890668819791</v>
+        <v>0.01861043664556337</v>
       </c>
       <c r="T21">
-        <v>0.01437890668819791</v>
+        <v>0.01260647881153297</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H22">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I22">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J22">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N22">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O22">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P22">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q22">
-        <v>2.090342745611877</v>
+        <v>2.547576887823999</v>
       </c>
       <c r="R22">
-        <v>2.090342745611877</v>
+        <v>15.285461326944</v>
       </c>
       <c r="S22">
-        <v>1.345706264149018E-05</v>
+        <v>1.006014812295604E-05</v>
       </c>
       <c r="T22">
-        <v>1.345706264149018E-05</v>
+        <v>6.814619483050246E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H23">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I23">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J23">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N23">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O23">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P23">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q23">
-        <v>6.031955403047477</v>
+        <v>8.765050530037332</v>
       </c>
       <c r="R23">
-        <v>6.031955403047477</v>
+        <v>52.59030318022399</v>
       </c>
       <c r="S23">
-        <v>3.88321015201383E-05</v>
+        <v>3.461238287205786E-05</v>
       </c>
       <c r="T23">
-        <v>3.88321015201383E-05</v>
+        <v>2.344599858688889E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H24">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I24">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J24">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N24">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O24">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P24">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q24">
-        <v>528.3529345546649</v>
+        <v>811.6467826864853</v>
       </c>
       <c r="R24">
-        <v>528.3529345546649</v>
+        <v>4869.880696118912</v>
       </c>
       <c r="S24">
-        <v>0.003401393648024</v>
+        <v>0.003205118909804953</v>
       </c>
       <c r="T24">
-        <v>0.003401393648024</v>
+        <v>0.002171107771108217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H25">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I25">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J25">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N25">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O25">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P25">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q25">
-        <v>919.5786363140194</v>
+        <v>1024.512775079445</v>
       </c>
       <c r="R25">
-        <v>919.5786363140194</v>
+        <v>6147.076650476672</v>
       </c>
       <c r="S25">
-        <v>0.005919999166945975</v>
+        <v>0.00404570724456659</v>
       </c>
       <c r="T25">
-        <v>0.005919999166945975</v>
+        <v>0.002740511876622345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H26">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I26">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J26">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N26">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O26">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P26">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q26">
-        <v>53.8758789003544</v>
+        <v>76.94300340199999</v>
       </c>
       <c r="R26">
-        <v>53.8758789003544</v>
+        <v>307.772013608</v>
       </c>
       <c r="S26">
-        <v>0.0003468383731564489</v>
+        <v>0.000303840883055894</v>
       </c>
       <c r="T26">
-        <v>0.0003468383731564489</v>
+        <v>0.0001372120288298817</v>
       </c>
     </row>
   </sheetData>
